--- a/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 Oct.xlsx
+++ b/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 Oct.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\3. Operational\3c. TTO Statistics\TTO TAT DATA\Raw Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherminliam/Documents/School Work/IS447/IS447---Smart-Healthcare/IS447/System/Data/Pharmacy Dept/GEH TTO Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83079197-C17D-2843-BBE9-36D1504B4C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9380"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,27 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$337</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -141,9 +152,6 @@
   </si>
   <si>
     <t>Ray Hng Yeo</t>
-  </si>
-  <si>
-    <t>ICU15</t>
   </si>
   <si>
     <t>Yi Zhen Tay</t>
@@ -281,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,30 +663,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.1796875" customWidth="1"/>
-    <col min="19" max="19" width="14.81640625" customWidth="1"/>
-    <col min="20" max="20" width="18.54296875" customWidth="1"/>
-    <col min="26" max="26" width="8.90625" style="15"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.1640625" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="18.5" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -752,7 +760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>44500</v>
       </c>
@@ -814,7 +822,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>44500</v>
       </c>
@@ -876,7 +884,7 @@
         <v>7.7777777777777777</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>44500</v>
       </c>
@@ -935,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>44500</v>
       </c>
@@ -997,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>44500</v>
       </c>
@@ -1056,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>44500</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>44500</v>
       </c>
@@ -1180,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>44500</v>
       </c>
@@ -1242,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>44499</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>59.30555555555555</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>44499</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>44499</v>
       </c>
@@ -1428,7 +1436,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>44498</v>
       </c>
@@ -1490,7 +1498,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>44498</v>
       </c>
@@ -1543,7 +1551,7 @@
         <v>509.4444444444444</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>44498</v>
       </c>
@@ -1605,7 +1613,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>44498</v>
       </c>
@@ -1658,7 +1666,7 @@
         <v>568.75</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>44498</v>
       </c>
@@ -1717,15 +1725,15 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>44498</v>
       </c>
       <c r="B18">
         <v>1021078777</v>
       </c>
-      <c r="C18" t="s">
-        <v>38</v>
+      <c r="C18">
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1740,7 +1748,7 @@
         <v>44498.429861111108</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N18" s="16">
         <v>0.41736111111111113</v>
@@ -1770,7 +1778,7 @@
         <v>584.30555555555554</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>44498</v>
       </c>
@@ -1832,7 +1840,7 @@
         <v>61.250000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>44498</v>
       </c>
@@ -1894,7 +1902,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>44498</v>
       </c>
@@ -1917,7 +1925,7 @@
         <v>44498.445833333331</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="20">
         <v>44498.450694444444</v>
@@ -1956,7 +1964,7 @@
         <v>6.8055555555555554</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>44498</v>
       </c>
@@ -1979,7 +1987,7 @@
         <v>44498.447916666664</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="20">
         <v>44498.453472222223</v>
@@ -2018,7 +2026,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>44498</v>
       </c>
@@ -2041,7 +2049,7 @@
         <v>44498.504861111112</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N23" s="16">
         <v>0.49305555555555558</v>
@@ -2071,7 +2079,7 @@
         <v>690.27777777777783</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>44498</v>
       </c>
@@ -2103,7 +2111,7 @@
         <v>44498.677083333336</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N24" s="16">
         <v>1.6666666666666666E-2</v>
@@ -2133,7 +2141,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>44498</v>
       </c>
@@ -2156,7 +2164,7 @@
         <v>44498.747916666667</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25" s="20">
         <v>44498.759722222225</v>
@@ -2165,7 +2173,7 @@
         <v>44498.762499999997</v>
       </c>
       <c r="K25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N25" s="16">
         <v>2.8472222222222222E-2</v>
@@ -2195,7 +2203,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>44497</v>
       </c>
@@ -2227,7 +2235,7 @@
         <v>44497.386805555558</v>
       </c>
       <c r="K26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N26" s="16">
         <v>1.9444444444444445E-2</v>
@@ -2257,7 +2265,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>44497</v>
       </c>
@@ -2280,7 +2288,7 @@
         <v>44497.435416666667</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27" s="20">
         <v>44497.459722222222</v>
@@ -2319,7 +2327,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>44497</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>44497.504166666666</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="20">
         <v>44497.51666666667</v>
@@ -2351,7 +2359,7 @@
         <v>44497.518055555556</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N28" s="16">
         <v>2.7083333333333334E-2</v>
@@ -2381,7 +2389,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>44497</v>
       </c>
@@ -2404,7 +2412,7 @@
         <v>44497.504861111112</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" s="20">
         <v>44497.513888888891</v>
@@ -2413,7 +2421,7 @@
         <v>44497.515277777777</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N29" s="16">
         <v>2.2222222222222223E-2</v>
@@ -2443,7 +2451,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>44497</v>
       </c>
@@ -2466,7 +2474,7 @@
         <v>44497.511805555558</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="20">
         <v>44497.51666666667</v>
@@ -2475,7 +2483,7 @@
         <v>44497.518055555556</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N30" s="16">
         <v>1.3888888888888888E-2</v>
@@ -2505,7 +2513,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>44497</v>
       </c>
@@ -2528,7 +2536,7 @@
         <v>44497.622916666667</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="20">
         <v>44497.632638888892</v>
@@ -2537,7 +2545,7 @@
         <v>44497.635416666664</v>
       </c>
       <c r="K31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N31" s="16">
         <v>3.8194444444444441E-2</v>
@@ -2567,7 +2575,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>44497</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>44497.640972222223</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" s="20">
         <v>44497.644444444442</v>
@@ -2623,7 +2631,7 @@
         <v>7.7777777777777777</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>44496</v>
       </c>
@@ -2670,7 +2678,7 @@
         <v>499.72222222222223</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>44496</v>
       </c>
@@ -2732,7 +2740,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>44496</v>
       </c>
@@ -2794,7 +2802,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>44496</v>
       </c>
@@ -2847,7 +2855,7 @@
         <v>525.97222222222229</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>44496</v>
       </c>
@@ -2909,7 +2917,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>44496</v>
       </c>
@@ -2971,7 +2979,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>44496</v>
       </c>
@@ -3033,7 +3041,7 @@
         <v>74.861111111111114</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>44496</v>
       </c>
@@ -3098,7 +3106,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>44496</v>
       </c>
@@ -3130,7 +3138,7 @@
         <v>44496.464583333334</v>
       </c>
       <c r="K41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N41" s="16">
         <v>3.4722222222222224E-2</v>
@@ -3160,7 +3168,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>44496</v>
       </c>
@@ -3183,7 +3191,7 @@
         <v>44496.463194444441</v>
       </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="20">
         <v>44496.473611111112</v>
@@ -3222,7 +3230,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>44496</v>
       </c>
@@ -3278,7 +3286,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>44495</v>
       </c>
@@ -3340,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>44495</v>
       </c>
@@ -3402,7 +3410,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>44495</v>
       </c>
@@ -3431,7 +3439,7 @@
         <v>44495.387499999997</v>
       </c>
       <c r="K46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N46" s="16">
         <v>2.2916666666666669E-2</v>
@@ -3461,7 +3469,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>44495</v>
       </c>
@@ -3523,7 +3531,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>44495</v>
       </c>
@@ -3585,7 +3593,7 @@
         <v>101.11111111111111</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>44495</v>
       </c>
@@ -3647,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>44495</v>
       </c>
@@ -3709,7 +3717,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>44495</v>
       </c>
@@ -3771,7 +3779,7 @@
         <v>86.527777777777786</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>44495</v>
       </c>
@@ -3803,7 +3811,7 @@
         <v>44495.59097222222</v>
       </c>
       <c r="K52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N52" s="16">
         <v>7.4305555555555555E-2</v>
@@ -3833,7 +3841,7 @@
         <v>104.02777777777777</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>44495</v>
       </c>
@@ -3895,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>44495</v>
       </c>
@@ -3957,7 +3965,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>44495</v>
       </c>
@@ -3980,7 +3988,7 @@
         <v>44495.568749999999</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I55" s="20">
         <v>44495.582638888889</v>
@@ -4019,7 +4027,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>44495</v>
       </c>
@@ -4042,7 +4050,7 @@
         <v>44495.585416666669</v>
       </c>
       <c r="H56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I56" s="20">
         <v>44495.606249999997</v>
@@ -4081,7 +4089,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>44495</v>
       </c>
@@ -4134,7 +4142,7 @@
         <v>851.66666666666663</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>44495</v>
       </c>
@@ -4196,7 +4204,7 @@
         <v>70.972222222222229</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>44494</v>
       </c>
@@ -4219,7 +4227,7 @@
         <v>44494.364583333336</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I59" s="20">
         <v>44494.37777777778</v>
@@ -4228,7 +4236,7 @@
         <v>44494.378472222219</v>
       </c>
       <c r="K59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N59" s="16">
         <v>2.1527777777777781E-2</v>
@@ -4258,7 +4266,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>44494</v>
       </c>
@@ -4281,7 +4289,7 @@
         <v>44494.399305555555</v>
       </c>
       <c r="H60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I60" s="20">
         <v>44494.404861111114</v>
@@ -4290,7 +4298,7 @@
         <v>44494.411111111112</v>
       </c>
       <c r="K60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N60" s="16">
         <v>4.2361111111111106E-2</v>
@@ -4320,7 +4328,7 @@
         <v>59.30555555555555</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>44494</v>
       </c>
@@ -4343,7 +4351,7 @@
         <v>44494.418055555558</v>
       </c>
       <c r="H61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I61" s="20">
         <v>44494.426388888889</v>
@@ -4382,7 +4390,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>44494</v>
       </c>
@@ -4405,7 +4413,7 @@
         <v>44494.478472222225</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I62" s="20">
         <v>44494.495833333334</v>
@@ -4444,7 +4452,7 @@
         <v>58.333333333333329</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>44494</v>
       </c>
@@ -4467,7 +4475,7 @@
         <v>44494.525000000001</v>
       </c>
       <c r="H63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I63" s="20">
         <v>44494.53125</v>
@@ -4476,7 +4484,7 @@
         <v>44494.537499999999</v>
       </c>
       <c r="K63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N63" s="16">
         <v>3.0555555555555555E-2</v>
@@ -4506,7 +4514,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>44494</v>
       </c>
@@ -4529,7 +4537,7 @@
         <v>44494.545138888891</v>
       </c>
       <c r="H64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I64" s="20">
         <v>44494.57708333333</v>
@@ -4538,7 +4546,7 @@
         <v>44494.57916666667</v>
       </c>
       <c r="K64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N64" s="16">
         <v>5.7638888888888885E-2</v>
@@ -4568,7 +4576,7 @@
         <v>80.694444444444443</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>44494</v>
       </c>
@@ -4591,7 +4599,7 @@
         <v>44494.545138888891</v>
       </c>
       <c r="H65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I65" s="20">
         <v>44494.57708333333</v>
@@ -4630,7 +4638,7 @@
         <v>65.138888888888886</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>44494</v>
       </c>
@@ -4653,7 +4661,7 @@
         <v>44494.613194444442</v>
       </c>
       <c r="H66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N66" s="16">
         <v>0.61319444444444449</v>
@@ -4683,7 +4691,7 @@
         <v>858.47222222222229</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>44494</v>
       </c>
@@ -4745,7 +4753,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>44493</v>
       </c>
@@ -4768,7 +4776,7 @@
         <v>44493.419444444444</v>
       </c>
       <c r="H68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I68" s="20">
         <v>44493.435416666667</v>
@@ -4777,7 +4785,7 @@
         <v>44493.439583333333</v>
       </c>
       <c r="K68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N68" s="16">
         <v>2.7083333333333334E-2</v>
@@ -4807,7 +4815,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>44493</v>
       </c>
@@ -4830,7 +4838,7 @@
         <v>44493.425000000003</v>
       </c>
       <c r="H69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I69" s="20">
         <v>44493.441666666666</v>
@@ -4839,7 +4847,7 @@
         <v>44493.443749999999</v>
       </c>
       <c r="K69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N69" s="16">
         <v>2.1527777777777781E-2</v>
@@ -4869,7 +4877,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>44493</v>
       </c>
@@ -4892,7 +4900,7 @@
         <v>44493.426388888889</v>
       </c>
       <c r="H70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I70" s="20">
         <v>44493.428472222222</v>
@@ -4901,7 +4909,7 @@
         <v>44493.428472222222</v>
       </c>
       <c r="K70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L70" t="s">
         <v>29</v>
@@ -4934,7 +4942,7 @@
         <v>11.666666666666666</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>44493</v>
       </c>
@@ -4957,7 +4965,7 @@
         <v>44493.429166666669</v>
       </c>
       <c r="H71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I71" s="20">
         <v>44493.435416666667</v>
@@ -4966,7 +4974,7 @@
         <v>44493.439583333333</v>
       </c>
       <c r="K71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N71" s="16">
         <v>6.9444444444444441E-3</v>
@@ -4996,7 +5004,7 @@
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>44492</v>
       </c>
@@ -5019,7 +5027,7 @@
         <v>44492.388194444444</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" s="20">
         <v>44492.44027777778</v>
@@ -5028,7 +5036,7 @@
         <v>44492.44027777778</v>
       </c>
       <c r="K72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N72" s="16">
         <v>6.8749999999999992E-2</v>
@@ -5058,7 +5066,7 @@
         <v>96.249999999999986</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>44492</v>
       </c>
@@ -5081,7 +5089,7 @@
         <v>44492.429861111108</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I73" s="20">
         <v>44492.44027777778</v>
@@ -5090,7 +5098,7 @@
         <v>44492.445833333331</v>
       </c>
       <c r="K73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N73" s="16">
         <v>6.7361111111111108E-2</v>
@@ -5120,7 +5128,7 @@
         <v>94.305555555555557</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>44492</v>
       </c>
@@ -5143,7 +5151,7 @@
         <v>44492.368055555555</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" s="20">
         <v>44492.378472222219</v>
@@ -5179,7 +5187,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>44492</v>
       </c>
@@ -5226,7 +5234,7 @@
         <v>535.69444444444446</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>44492</v>
       </c>
@@ -5288,7 +5296,7 @@
         <v>119.58333333333331</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>44492</v>
       </c>
@@ -5311,7 +5319,7 @@
         <v>44492.394444444442</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N77" s="16">
         <v>0.38541666666666669</v>
@@ -5341,7 +5349,7 @@
         <v>539.58333333333337</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>44492</v>
       </c>
@@ -5364,7 +5372,7 @@
         <v>44492.458333333336</v>
       </c>
       <c r="K78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N78" s="16">
         <v>4.6527777777777779E-2</v>
@@ -5394,7 +5402,7 @@
         <v>65.138888888888886</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>44492</v>
       </c>
@@ -5417,7 +5425,7 @@
         <v>44492.412499999999</v>
       </c>
       <c r="H79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I79" s="20">
         <v>44492.475694444445</v>
@@ -5456,7 +5464,7 @@
         <v>111.80555555555554</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>44492</v>
       </c>
@@ -5491,7 +5499,7 @@
         <v>37</v>
       </c>
       <c r="L80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N80" s="16">
         <v>5.9722222222222225E-2</v>
@@ -5521,7 +5529,7 @@
         <v>83.611111111111114</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>44491</v>
       </c>
@@ -5553,7 +5561,7 @@
         <v>44491.408333333333</v>
       </c>
       <c r="K81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N81" s="16">
         <v>2.9166666666666664E-2</v>
@@ -5583,7 +5591,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>44491</v>
       </c>
@@ -5606,7 +5614,7 @@
         <v>44491.393055555556</v>
       </c>
       <c r="H82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I82" s="20">
         <v>44491.413194444445</v>
@@ -5615,7 +5623,7 @@
         <v>44491.418055555558</v>
       </c>
       <c r="K82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N82" s="16">
         <v>3.125E-2</v>
@@ -5645,7 +5653,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>44491</v>
       </c>
@@ -5668,7 +5676,7 @@
         <v>44491.431250000001</v>
       </c>
       <c r="H83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I83" s="20">
         <v>44491.443749999999</v>
@@ -5707,7 +5715,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>44491</v>
       </c>
@@ -5736,7 +5744,7 @@
         <v>44491.422222222223</v>
       </c>
       <c r="K84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N84" s="16">
         <v>5.5555555555555552E-2</v>
@@ -5766,7 +5774,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>44491</v>
       </c>
@@ -5789,7 +5797,7 @@
         <v>44491.438194444447</v>
       </c>
       <c r="H85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I85" s="20">
         <v>44491.46597222222</v>
@@ -5828,7 +5836,7 @@
         <v>60.277777777777786</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>44491</v>
       </c>
@@ -5851,7 +5859,7 @@
         <v>44491.421527777777</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I86" s="20">
         <v>44491.450694444444</v>
@@ -5890,7 +5898,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>44491</v>
       </c>
@@ -5913,7 +5921,7 @@
         <v>44491.434027777781</v>
       </c>
       <c r="H87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I87" s="20">
         <v>44491.44027777778</v>
@@ -5952,7 +5960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>44491</v>
       </c>
@@ -5984,7 +5992,7 @@
         <v>44491.481944444444</v>
       </c>
       <c r="K88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N88" s="16">
         <v>1.4583333333333332E-2</v>
@@ -6014,7 +6022,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>44491</v>
       </c>
@@ -6037,7 +6045,7 @@
         <v>44491.520138888889</v>
       </c>
       <c r="H89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I89" s="20">
         <v>44491.53402777778</v>
@@ -6076,7 +6084,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>44491</v>
       </c>
@@ -6138,7 +6146,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>44491</v>
       </c>
@@ -6167,7 +6175,7 @@
         <v>44491.559027777781</v>
       </c>
       <c r="K91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N91" s="16">
         <v>0.20347222222222219</v>
@@ -6197,7 +6205,7 @@
         <v>284.86111111111109</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>44491</v>
       </c>
@@ -6229,7 +6237,7 @@
         <v>44491.570833333331</v>
       </c>
       <c r="K92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N92" s="16">
         <v>2.4999999999999998E-2</v>
@@ -6259,7 +6267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
         <v>44490</v>
       </c>
@@ -6291,7 +6299,7 @@
         <v>44490.399305555555</v>
       </c>
       <c r="K93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N93" s="16">
         <v>3.3333333333333333E-2</v>
@@ -6321,7 +6329,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>44490</v>
       </c>
@@ -6344,7 +6352,7 @@
         <v>44490.402777777781</v>
       </c>
       <c r="H94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I94" s="20">
         <v>44490.416666666664</v>
@@ -6353,7 +6361,7 @@
         <v>44490.42291666667</v>
       </c>
       <c r="K94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N94" s="16">
         <v>4.9305555555555554E-2</v>
@@ -6383,7 +6391,7 @@
         <v>69.027777777777771</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
         <v>44490</v>
       </c>
@@ -6406,7 +6414,7 @@
         <v>44490.372916666667</v>
       </c>
       <c r="H95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I95" s="20">
         <v>44490.387499999997</v>
@@ -6415,7 +6423,7 @@
         <v>44490.390277777777</v>
       </c>
       <c r="K95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N95" s="16">
         <v>2.9166666666666664E-2</v>
@@ -6445,7 +6453,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
         <v>44490</v>
       </c>
@@ -6468,7 +6476,7 @@
         <v>44490.390277777777</v>
       </c>
       <c r="H96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I96" s="20">
         <v>44490.395833333336</v>
@@ -6477,7 +6485,7 @@
         <v>44490.404166666667</v>
       </c>
       <c r="K96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N96" s="16">
         <v>1.1805555555555555E-2</v>
@@ -6507,7 +6515,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>44490</v>
       </c>
@@ -6530,7 +6538,7 @@
         <v>44490.364583333336</v>
       </c>
       <c r="H97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I97" s="20">
         <v>44490.402777777781</v>
@@ -6539,7 +6547,7 @@
         <v>44490.409722222219</v>
       </c>
       <c r="K97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N97" s="16">
         <v>6.1111111111111116E-2</v>
@@ -6569,7 +6577,7 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>44490</v>
       </c>
@@ -6592,7 +6600,7 @@
         <v>44490.425000000003</v>
       </c>
       <c r="H98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I98" s="20">
         <v>44490.430555555555</v>
@@ -6601,7 +6609,7 @@
         <v>44490.432638888888</v>
       </c>
       <c r="K98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N98" s="16">
         <v>1.0416666666666666E-2</v>
@@ -6631,7 +6639,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>44490</v>
       </c>
@@ -6654,16 +6662,16 @@
         <v>44490.410416666666</v>
       </c>
       <c r="H99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I99" s="20">
         <v>44490.427083333336</v>
       </c>
       <c r="K99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N99" s="16">
         <v>9.375E-2</v>
@@ -6693,7 +6701,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>44490</v>
       </c>
@@ -6716,7 +6724,7 @@
         <v>44489.566666666666</v>
       </c>
       <c r="H100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I100" s="20">
         <v>44490.444444444445</v>
@@ -6725,10 +6733,10 @@
         <v>44490.458333333336</v>
       </c>
       <c r="K100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N100" s="16">
         <v>0.89236111111111116</v>
@@ -6758,7 +6766,7 @@
         <v>1249.3055555555557</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>44490</v>
       </c>
@@ -6781,7 +6789,7 @@
         <v>44489.368055555555</v>
       </c>
       <c r="H101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I101" s="20">
         <v>44490.461805555555</v>
@@ -6790,7 +6798,7 @@
         <v>44490.465277777781</v>
       </c>
       <c r="K101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N101" s="16">
         <v>0.10069444444444443</v>
@@ -6820,7 +6828,7 @@
         <v>140.9722222222222</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>44489</v>
       </c>
@@ -6873,7 +6881,7 @@
         <v>509.4444444444444</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>44489</v>
       </c>
@@ -6920,7 +6928,7 @@
         <v>533.75</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>44489</v>
       </c>
@@ -6982,7 +6990,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>44489</v>
       </c>
@@ -7044,7 +7052,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>44489</v>
       </c>
@@ -7106,7 +7114,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>44489</v>
       </c>
@@ -7168,7 +7176,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>44489</v>
       </c>
@@ -7227,7 +7235,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
         <v>44489</v>
       </c>
@@ -7289,7 +7297,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="19">
         <v>44489</v>
       </c>
@@ -7351,7 +7359,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="19">
         <v>44489</v>
       </c>
@@ -7383,7 +7391,7 @@
         <v>44489.442361111112</v>
       </c>
       <c r="K111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N111" s="16">
         <v>2.2916666666666669E-2</v>
@@ -7413,7 +7421,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="19">
         <v>44489</v>
       </c>
@@ -7445,7 +7453,7 @@
         <v>44489.461805555555</v>
       </c>
       <c r="K112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N112" s="16">
         <v>3.4027777777777775E-2</v>
@@ -7475,7 +7483,7 @@
         <v>47.638888888888886</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="19">
         <v>44489</v>
       </c>
@@ -7507,7 +7515,7 @@
         <v>44489.436111111114</v>
       </c>
       <c r="K113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N113" s="16">
         <v>5.5555555555555558E-3</v>
@@ -7537,7 +7545,7 @@
         <v>7.7777777777777777</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
         <v>44489</v>
       </c>
@@ -7599,7 +7607,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="19">
         <v>44489</v>
       </c>
@@ -7628,7 +7636,7 @@
         <v>44489.482638888891</v>
       </c>
       <c r="K115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N115" s="16">
         <v>3.0555555555555555E-2</v>
@@ -7658,7 +7666,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="19">
         <v>44489</v>
       </c>
@@ -7720,7 +7728,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <v>44489</v>
       </c>
@@ -7752,7 +7760,7 @@
         <v>44489.49722222222</v>
       </c>
       <c r="K117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N117" s="16">
         <v>1.4583333333333332E-2</v>
@@ -7782,7 +7790,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
         <v>44489</v>
       </c>
@@ -7844,7 +7852,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
         <v>44489</v>
       </c>
@@ -7891,7 +7899,7 @@
         <v>675.69444444444446</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="19">
         <v>44489</v>
       </c>
@@ -7938,7 +7946,7 @@
         <v>731.1111111111112</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="19">
         <v>44489</v>
       </c>
@@ -7964,7 +7972,7 @@
         <v>44489.636111111111</v>
       </c>
       <c r="K121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N121" s="16">
         <v>9.9999999999999992E-2</v>
@@ -7994,7 +8002,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="19">
         <v>44489</v>
       </c>
@@ -8041,7 +8049,7 @@
         <v>765.13888888888891</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="19">
         <v>44489</v>
       </c>
@@ -8103,7 +8111,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="19">
         <v>44488</v>
       </c>
@@ -8126,7 +8134,7 @@
         <v>44488.366666666669</v>
       </c>
       <c r="H124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I124" s="20">
         <v>44488.375</v>
@@ -8135,7 +8143,7 @@
         <v>44488.378472222219</v>
       </c>
       <c r="K124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N124" s="16">
         <v>1.3888888888888888E-2</v>
@@ -8165,7 +8173,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="19">
         <v>44488</v>
       </c>
@@ -8188,7 +8196,7 @@
         <v>44488.371527777781</v>
       </c>
       <c r="H125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I125" s="20">
         <v>44488.385416666664</v>
@@ -8197,7 +8205,7 @@
         <v>44488.388194444444</v>
       </c>
       <c r="K125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N125" s="16">
         <v>2.2916666666666669E-2</v>
@@ -8227,7 +8235,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="19">
         <v>44488</v>
       </c>
@@ -8250,7 +8258,7 @@
         <v>44488.37777777778</v>
       </c>
       <c r="H126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I126" s="20">
         <v>44488.38958333333</v>
@@ -8259,7 +8267,7 @@
         <v>44488.39166666667</v>
       </c>
       <c r="K126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N126" s="16">
         <v>1.8749999999999999E-2</v>
@@ -8289,7 +8297,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="19">
         <v>44488</v>
       </c>
@@ -8312,7 +8320,7 @@
         <v>44488.372916666667</v>
       </c>
       <c r="H127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I127" s="20">
         <v>44488.381944444445</v>
@@ -8321,7 +8329,7 @@
         <v>44488.384722222225</v>
       </c>
       <c r="K127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N127" s="16">
         <v>1.1111111111111112E-2</v>
@@ -8351,7 +8359,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="19">
         <v>44488</v>
       </c>
@@ -8374,7 +8382,7 @@
         <v>44488.38958333333</v>
       </c>
       <c r="H128" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I128" s="20">
         <v>44488.394444444442</v>
@@ -8383,7 +8391,7 @@
         <v>44488.397222222222</v>
       </c>
       <c r="K128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N128" s="16">
         <v>6.2499999999999995E-3</v>
@@ -8413,7 +8421,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="19">
         <v>44488</v>
       </c>
@@ -8445,7 +8453,7 @@
         <v>44488.412499999999</v>
       </c>
       <c r="K129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N129" s="16">
         <v>1.3194444444444444E-2</v>
@@ -8475,7 +8483,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="19">
         <v>44488</v>
       </c>
@@ -8498,7 +8506,7 @@
         <v>44488.417361111111</v>
       </c>
       <c r="H130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I130" s="20">
         <v>44488.493055555555</v>
@@ -8507,7 +8515,7 @@
         <v>44488.5</v>
       </c>
       <c r="K130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N130" s="16">
         <v>8.7500000000000008E-2</v>
@@ -8537,7 +8545,7 @@
         <v>122.50000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="19">
         <v>44488</v>
       </c>
@@ -8560,7 +8568,7 @@
         <v>44488.450694444444</v>
       </c>
       <c r="H131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N131" s="16">
         <v>0.42777777777777781</v>
@@ -8590,7 +8598,7 @@
         <v>598.88888888888891</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="19">
         <v>44488</v>
       </c>
@@ -8613,7 +8621,7 @@
         <v>44488.475694444445</v>
       </c>
       <c r="H132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I132" s="20">
         <v>44488.479166666664</v>
@@ -8622,7 +8630,7 @@
         <v>44488.490972222222</v>
       </c>
       <c r="K132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N132" s="16">
         <v>1.6666666666666666E-2</v>
@@ -8652,7 +8660,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="19">
         <v>44488</v>
       </c>
@@ -8675,7 +8683,7 @@
         <v>44488.495138888888</v>
       </c>
       <c r="H133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I133" s="20">
         <v>44488.510416666664</v>
@@ -8684,7 +8692,7 @@
         <v>44488.513194444444</v>
       </c>
       <c r="K133" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N133" s="16">
         <v>2.0833333333333332E-2</v>
@@ -8714,7 +8722,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="19">
         <v>44488</v>
       </c>
@@ -8737,7 +8745,7 @@
         <v>44488.542361111111</v>
       </c>
       <c r="H134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I134" s="20">
         <v>44488.556944444441</v>
@@ -8746,7 +8754,7 @@
         <v>44488.560416666667</v>
       </c>
       <c r="K134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N134" s="16">
         <v>2.7777777777777776E-2</v>
@@ -8776,7 +8784,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="19">
         <v>44488</v>
       </c>
@@ -8799,13 +8807,13 @@
         <v>44488.52847222222</v>
       </c>
       <c r="H135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I135" s="20">
         <v>44488.554166666669</v>
       </c>
       <c r="K135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N135" s="16">
         <v>2.9861111111111113E-2</v>
@@ -8835,7 +8843,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="19">
         <v>44488</v>
       </c>
@@ -8858,7 +8866,7 @@
         <v>44488.651388888888</v>
       </c>
       <c r="H136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I136" s="20">
         <v>44488.704861111109</v>
@@ -8867,10 +8875,10 @@
         <v>44488.708333333336</v>
       </c>
       <c r="K136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N136" s="16">
         <v>6.3194444444444442E-2</v>
@@ -8900,7 +8908,7 @@
         <v>88.472222222222214</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="19">
         <v>44488</v>
       </c>
@@ -8923,7 +8931,7 @@
         <v>44488.661111111112</v>
       </c>
       <c r="H137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I137" s="20">
         <v>44488.708333333336</v>
@@ -8932,10 +8940,10 @@
         <v>44488.71875</v>
       </c>
       <c r="K137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N137" s="16">
         <v>6.5972222222222224E-2</v>
@@ -8965,7 +8973,7 @@
         <v>92.361111111111114</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="19">
         <v>44487</v>
       </c>
@@ -9027,7 +9035,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="19">
         <v>44487</v>
       </c>
@@ -9089,7 +9097,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="19">
         <v>44487</v>
       </c>
@@ -9112,7 +9120,7 @@
         <v>44487.388888888891</v>
       </c>
       <c r="H140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I140" s="20">
         <v>44487.393750000003</v>
@@ -9151,7 +9159,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="19">
         <v>44487</v>
       </c>
@@ -9213,7 +9221,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="19">
         <v>44487</v>
       </c>
@@ -9266,7 +9274,7 @@
         <v>537.63888888888891</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="19">
         <v>44487</v>
       </c>
@@ -9328,7 +9336,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="19">
         <v>44487</v>
       </c>
@@ -9390,7 +9398,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="19">
         <v>44487</v>
       </c>
@@ -9452,7 +9460,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="19">
         <v>44487</v>
       </c>
@@ -9514,7 +9522,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="19">
         <v>44487</v>
       </c>
@@ -9576,7 +9584,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="19">
         <v>44487</v>
       </c>
@@ -9638,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="19">
         <v>44487</v>
       </c>
@@ -9661,7 +9669,7 @@
         <v>44487.59097222222</v>
       </c>
       <c r="H149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I149" s="20">
         <v>44487.597916666666</v>
@@ -9670,7 +9678,7 @@
         <v>44487.599305555559</v>
       </c>
       <c r="K149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N149" s="16">
         <v>1.8055555555555557E-2</v>
@@ -9700,7 +9708,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="19">
         <v>44487</v>
       </c>
@@ -9723,7 +9731,7 @@
         <v>44487.695138888892</v>
       </c>
       <c r="H150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I150" s="20">
         <v>44487.700694444444</v>
@@ -9732,7 +9740,7 @@
         <v>44487.70208333333</v>
       </c>
       <c r="K150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N150" s="16">
         <v>1.1805555555555555E-2</v>
@@ -9762,7 +9770,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="19">
         <v>44487</v>
       </c>
@@ -9785,7 +9793,7 @@
         <v>44487.725694444445</v>
       </c>
       <c r="H151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I151" s="20">
         <v>44487.736805555556</v>
@@ -9794,7 +9802,7 @@
         <v>44487.739583333336</v>
       </c>
       <c r="K151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N151" s="16">
         <v>1.8055555555555557E-2</v>
@@ -9824,7 +9832,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="19">
         <v>44486</v>
       </c>
@@ -9871,7 +9879,7 @@
         <v>535.69444444444446</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="19">
         <v>44486</v>
       </c>
@@ -9918,7 +9926,7 @@
         <v>585.27777777777783</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="19">
         <v>44486</v>
       </c>
@@ -9965,7 +9973,7 @@
         <v>616.38888888888891</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="19">
         <v>44485</v>
       </c>
@@ -9982,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="L155" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N155" s="16">
         <v>0</v>
@@ -10012,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="19">
         <v>44485</v>
       </c>
@@ -10035,7 +10043,7 @@
         <v>44485.415972222225</v>
       </c>
       <c r="H156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N156" s="16">
         <v>0.40625</v>
@@ -10065,7 +10073,7 @@
         <v>568.75</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="19">
         <v>44484</v>
       </c>
@@ -10127,7 +10135,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="19">
         <v>44484</v>
       </c>
@@ -10150,7 +10158,7 @@
         <v>44484.369444444441</v>
       </c>
       <c r="H158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I158" s="20">
         <v>44484.390972222223</v>
@@ -10189,7 +10197,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="19">
         <v>44484</v>
       </c>
@@ -10212,7 +10220,7 @@
         <v>44484.408333333333</v>
       </c>
       <c r="H159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I159" s="20">
         <v>44484.422222222223</v>
@@ -10221,7 +10229,7 @@
         <v>44484.424305555556</v>
       </c>
       <c r="K159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N159" s="16">
         <v>5.6944444444444443E-2</v>
@@ -10251,7 +10259,7 @@
         <v>79.722222222222214</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
         <v>44484</v>
       </c>
@@ -10307,7 +10315,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="19">
         <v>44484</v>
       </c>
@@ -10330,7 +10338,7 @@
         <v>44484.402777777781</v>
       </c>
       <c r="H161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I161" s="20">
         <v>44484.40625</v>
@@ -10339,7 +10347,7 @@
         <v>44484.40902777778</v>
       </c>
       <c r="K161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N161" s="16">
         <v>5.5555555555555558E-3</v>
@@ -10369,7 +10377,7 @@
         <v>7.7777777777777777</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="19">
         <v>44484</v>
       </c>
@@ -10392,7 +10400,7 @@
         <v>44484.386111111111</v>
       </c>
       <c r="H162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N162" s="16">
         <v>0.37152777777777773</v>
@@ -10422,7 +10430,7 @@
         <v>520.1388888888888</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="19">
         <v>44484</v>
       </c>
@@ -10475,7 +10483,7 @@
         <v>543.47222222222229</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="19">
         <v>44484</v>
       </c>
@@ -10507,7 +10515,7 @@
         <v>44484.421527777777</v>
       </c>
       <c r="K164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N164" s="16">
         <v>2.2916666666666669E-2</v>
@@ -10537,7 +10545,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="19">
         <v>44484</v>
       </c>
@@ -10599,7 +10607,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="19">
         <v>44484</v>
       </c>
@@ -10622,7 +10630,7 @@
         <v>44484.444444444445</v>
       </c>
       <c r="H166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I166" s="20">
         <v>44484.456944444442</v>
@@ -10655,7 +10663,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="19">
         <v>44484</v>
       </c>
@@ -10678,7 +10686,7 @@
         <v>44484.438888888886</v>
       </c>
       <c r="H167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I167" s="20">
         <v>44484.444444444445</v>
@@ -10687,7 +10695,7 @@
         <v>44484.45416666667</v>
       </c>
       <c r="K167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N167" s="16">
         <v>2.0833333333333332E-2</v>
@@ -10717,7 +10725,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="19">
         <v>44484</v>
       </c>
@@ -10764,7 +10772,7 @@
         <v>620.27777777777771</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="19">
         <v>44484</v>
       </c>
@@ -10787,7 +10795,7 @@
         <v>44484.449305555558</v>
       </c>
       <c r="H169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N169" s="16">
         <v>0.44444444444444442</v>
@@ -10817,7 +10825,7 @@
         <v>622.22222222222217</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
         <v>44484</v>
       </c>
@@ -10840,7 +10848,7 @@
         <v>44484.515972222223</v>
       </c>
       <c r="H170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I170" s="20">
         <v>44484.527777777781</v>
@@ -10849,7 +10857,7 @@
         <v>44484.532638888886</v>
       </c>
       <c r="K170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N170" s="16">
         <v>2.0833333333333332E-2</v>
@@ -10879,7 +10887,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="19">
         <v>44484</v>
       </c>
@@ -10932,7 +10940,7 @@
         <v>739.86111111111109</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
         <v>44484</v>
       </c>
@@ -10979,7 +10987,7 @@
         <v>752.5</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="19">
         <v>44484</v>
       </c>
@@ -11002,7 +11010,7 @@
         <v>44484.553472222222</v>
       </c>
       <c r="H173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I173" s="20">
         <v>44484.577777777777</v>
@@ -11041,7 +11049,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
         <v>44484</v>
       </c>
@@ -11103,7 +11111,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="19">
         <v>44483</v>
       </c>
@@ -11126,7 +11134,7 @@
         <v>44483.373611111114</v>
       </c>
       <c r="H175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I175" s="20">
         <v>44483.388888888891</v>
@@ -11135,7 +11143,7 @@
         <v>44483.394444444442</v>
       </c>
       <c r="K175" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N175" s="16">
         <v>2.0833333333333332E-2</v>
@@ -11165,7 +11173,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="19">
         <v>44483</v>
       </c>
@@ -11188,7 +11196,7 @@
         <v>44483.381944444445</v>
       </c>
       <c r="H176" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I176" s="20">
         <v>44483.399305555555</v>
@@ -11197,7 +11205,7 @@
         <v>44483.40902777778</v>
       </c>
       <c r="K176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N176" s="16">
         <v>2.2222222222222223E-2</v>
@@ -11227,7 +11235,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="19">
         <v>44483</v>
       </c>
@@ -11250,7 +11258,7 @@
         <v>44483.397916666669</v>
       </c>
       <c r="H177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I177" s="20">
         <v>44483.420138888891</v>
@@ -11259,7 +11267,7 @@
         <v>44483.423611111109</v>
       </c>
       <c r="K177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N177" s="16">
         <v>3.888888888888889E-2</v>
@@ -11289,7 +11297,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="19">
         <v>44483</v>
       </c>
@@ -11336,7 +11344,7 @@
         <v>535.69444444444446</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="19">
         <v>44483</v>
       </c>
@@ -11359,7 +11367,7 @@
         <v>44483.418749999997</v>
       </c>
       <c r="H179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I179" s="20">
         <v>44483.454861111109</v>
@@ -11398,7 +11406,7 @@
         <v>70.972222222222229</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="19">
         <v>44483</v>
       </c>
@@ -11421,7 +11429,7 @@
         <v>44483.399305555555</v>
       </c>
       <c r="H180" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I180" s="20">
         <v>44483.423611111109</v>
@@ -11460,7 +11468,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="19">
         <v>44483</v>
       </c>
@@ -11483,7 +11491,7 @@
         <v>44483.40625</v>
       </c>
       <c r="H181" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I181" s="20">
         <v>44483.427083333336</v>
@@ -11492,7 +11500,7 @@
         <v>44483.434027777781</v>
       </c>
       <c r="K181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N181" s="16">
         <v>2.4305555555555556E-2</v>
@@ -11522,7 +11530,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="19">
         <v>44483</v>
       </c>
@@ -11545,7 +11553,7 @@
         <v>44482.377083333333</v>
       </c>
       <c r="H182" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I182" s="20">
         <v>44483.45208333333</v>
@@ -11554,7 +11562,7 @@
         <v>44483.461805555555</v>
       </c>
       <c r="K182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N182" s="16">
         <v>0.11388888888888889</v>
@@ -11584,7 +11592,7 @@
         <v>159.44444444444443</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="19">
         <v>44483</v>
       </c>
@@ -11607,7 +11615,7 @@
         <v>44483.481944444444</v>
       </c>
       <c r="H183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I183" s="20">
         <v>44483.493055555555</v>
@@ -11616,7 +11624,7 @@
         <v>44483.5</v>
       </c>
       <c r="K183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N183" s="16">
         <v>3.4722222222222224E-2</v>
@@ -11646,7 +11654,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="19">
         <v>44483</v>
       </c>
@@ -11669,7 +11677,7 @@
         <v>44483.451388888891</v>
       </c>
       <c r="H184" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I184" s="20">
         <v>44483.503472222219</v>
@@ -11708,7 +11716,7 @@
         <v>83.611111111111114</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="19">
         <v>44483</v>
       </c>
@@ -11731,7 +11739,7 @@
         <v>44483.536111111112</v>
       </c>
       <c r="H185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I185" s="20">
         <v>44483.548611111109</v>
@@ -11740,7 +11748,7 @@
         <v>44483.553472222222</v>
       </c>
       <c r="K185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N185" s="16">
         <v>2.2916666666666669E-2</v>
@@ -11770,7 +11778,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="19">
         <v>44483</v>
       </c>
@@ -11793,7 +11801,7 @@
         <v>44483.683333333334</v>
       </c>
       <c r="H186" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I186" s="20">
         <v>44483.706250000003</v>
@@ -11802,7 +11810,7 @@
         <v>44483.707638888889</v>
       </c>
       <c r="K186" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N186" s="16">
         <v>2.5694444444444447E-2</v>
@@ -11832,7 +11840,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="19">
         <v>44483</v>
       </c>
@@ -11855,7 +11863,7 @@
         <v>44483.738194444442</v>
       </c>
       <c r="H187" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I187" s="20">
         <v>44483.760416666664</v>
@@ -11864,7 +11872,7 @@
         <v>44483.762499999997</v>
       </c>
       <c r="K187" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N187" s="16">
         <v>2.6388888888888889E-2</v>
@@ -11894,7 +11902,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="19">
         <v>44482</v>
       </c>
@@ -11956,7 +11964,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="19">
         <v>44482</v>
       </c>
@@ -11979,7 +11987,7 @@
         <v>44482.381944444445</v>
       </c>
       <c r="H189" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I189" s="20">
         <v>44482.415277777778</v>
@@ -12018,7 +12026,7 @@
         <v>60.277777777777786</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="19">
         <v>44482</v>
       </c>
@@ -12080,7 +12088,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="19">
         <v>44482</v>
       </c>
@@ -12133,7 +12141,7 @@
         <v>515.27777777777783</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="19">
         <v>44482</v>
       </c>
@@ -12156,7 +12164,7 @@
         <v>44482.37777777778</v>
       </c>
       <c r="H192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I192" s="20">
         <v>44482.399305555555</v>
@@ -12195,7 +12203,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="19">
         <v>44482</v>
       </c>
@@ -12218,7 +12226,7 @@
         <v>44482.38958333333</v>
       </c>
       <c r="H193" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I193" s="20">
         <v>44482.414583333331</v>
@@ -12251,7 +12259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="19">
         <v>44482</v>
       </c>
@@ -12274,7 +12282,7 @@
         <v>44482.399305555555</v>
       </c>
       <c r="H194" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I194" s="20">
         <v>44482.406944444447</v>
@@ -12313,7 +12321,7 @@
         <v>10.694444444444445</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="19">
         <v>44482</v>
       </c>
@@ -12375,7 +12383,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="19">
         <v>44482</v>
       </c>
@@ -12437,7 +12445,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="19">
         <v>44482</v>
       </c>
@@ -12472,7 +12480,7 @@
         <v>37</v>
       </c>
       <c r="L197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N197" s="16">
         <v>7.4305555555555555E-2</v>
@@ -12502,7 +12510,7 @@
         <v>104.02777777777777</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="19">
         <v>44482</v>
       </c>
@@ -12525,7 +12533,7 @@
         <v>44482.43472222222</v>
       </c>
       <c r="H198" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I198" s="20">
         <v>44482.455555555556</v>
@@ -12564,7 +12572,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="19">
         <v>44482</v>
       </c>
@@ -12626,7 +12634,7 @@
         <v>1.9444444444444444</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="19">
         <v>44482</v>
       </c>
@@ -12688,7 +12696,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="19">
         <v>44482</v>
       </c>
@@ -12750,7 +12758,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="19">
         <v>44482</v>
       </c>
@@ -12797,7 +12805,7 @@
         <v>723.33333333333337</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="19">
         <v>44482</v>
       </c>
@@ -12826,7 +12834,7 @@
         <v>44482.517361111109</v>
       </c>
       <c r="L203" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N203" s="16">
         <v>3.8194444444444441E-2</v>
@@ -12856,7 +12864,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="19">
         <v>44481</v>
       </c>
@@ -12918,7 +12926,7 @@
         <v>186.66666666666666</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="19">
         <v>44481</v>
       </c>
@@ -12953,7 +12961,7 @@
         <v>36</v>
       </c>
       <c r="L205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N205" s="16">
         <v>4.7916666666666663E-2</v>
@@ -12983,7 +12991,7 @@
         <v>67.083333333333329</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="19">
         <v>44481</v>
       </c>
@@ -13006,7 +13014,7 @@
         <v>44481.377083333333</v>
       </c>
       <c r="H206" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I206" s="20">
         <v>44481.392361111109</v>
@@ -13045,7 +13053,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="19">
         <v>44481</v>
       </c>
@@ -13107,7 +13115,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="19">
         <v>44481</v>
       </c>
@@ -13169,7 +13177,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="19">
         <v>44481</v>
       </c>
@@ -13231,7 +13239,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="19">
         <v>44481</v>
       </c>
@@ -13293,7 +13301,7 @@
         <v>105.97222222222221</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="19">
         <v>44481</v>
       </c>
@@ -13316,7 +13324,7 @@
         <v>44481.4</v>
       </c>
       <c r="H211" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I211" s="20">
         <v>44481.447222222225</v>
@@ -13355,7 +13363,7 @@
         <v>71.944444444444457</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="19">
         <v>44481</v>
       </c>
@@ -13378,7 +13386,7 @@
         <v>44481.410416666666</v>
       </c>
       <c r="H212" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I212" s="20">
         <v>44481.42291666667</v>
@@ -13417,7 +13425,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="19">
         <v>44481</v>
       </c>
@@ -13479,7 +13487,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="19">
         <v>44481</v>
       </c>
@@ -13541,7 +13549,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="19">
         <v>44481</v>
       </c>
@@ -13564,7 +13572,7 @@
         <v>44481.558333333334</v>
       </c>
       <c r="H215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I215" s="20">
         <v>44481.576388888891</v>
@@ -13603,7 +13611,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="19">
         <v>44481</v>
       </c>
@@ -13626,7 +13634,7 @@
         <v>44481.56527777778</v>
       </c>
       <c r="H216" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I216" s="20">
         <v>44481.586805555555</v>
@@ -13665,7 +13673,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="19">
         <v>44481</v>
       </c>
@@ -13688,7 +13696,7 @@
         <v>44481.576388888891</v>
       </c>
       <c r="H217" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I217" s="20">
         <v>44481.611111111109</v>
@@ -13727,7 +13735,7 @@
         <v>62.222222222222221</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="19">
         <v>44480</v>
       </c>
@@ -13789,7 +13797,7 @@
         <v>81.666666666666657</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="19">
         <v>44480</v>
       </c>
@@ -13851,7 +13859,7 @@
         <v>72.916666666666671</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="19">
         <v>44480</v>
       </c>
@@ -13874,7 +13882,7 @@
         <v>44480.40625</v>
       </c>
       <c r="H220" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I220" s="20">
         <v>44480.453472222223</v>
@@ -13913,7 +13921,7 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="19">
         <v>44480</v>
       </c>
@@ -13975,7 +13983,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="19">
         <v>44480</v>
       </c>
@@ -14040,7 +14048,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="19">
         <v>44480</v>
       </c>
@@ -14093,7 +14101,7 @@
         <v>806.94444444444457</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="19">
         <v>44480</v>
       </c>
@@ -14146,7 +14154,7 @@
         <v>893.47222222222217</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="19">
         <v>44480</v>
       </c>
@@ -14169,7 +14177,7 @@
         <v>44480.656944444447</v>
       </c>
       <c r="H225" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I225" s="20">
         <v>44480.665277777778</v>
@@ -14178,10 +14186,10 @@
         <v>44480.669444444444</v>
       </c>
       <c r="K225" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L225" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N225" s="16">
         <v>1.5972222222222224E-2</v>
@@ -14211,7 +14219,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="19">
         <v>44480</v>
       </c>
@@ -14234,7 +14242,7 @@
         <v>44480.670138888891</v>
       </c>
       <c r="H226" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I226" s="20">
         <v>44480.675000000003</v>
@@ -14243,7 +14251,7 @@
         <v>44480.682638888888</v>
       </c>
       <c r="K226" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N226" s="16">
         <v>9.7222222222222224E-3</v>
@@ -14273,7 +14281,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="19">
         <v>44480</v>
       </c>
@@ -14296,7 +14304,7 @@
         <v>44480.69027777778</v>
       </c>
       <c r="H227" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N227" s="16">
         <v>0.69027777777777777</v>
@@ -14326,7 +14334,7 @@
         <v>966.38888888888891</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="19">
         <v>44480</v>
       </c>
@@ -14355,10 +14363,10 @@
         <v>44480.720138888886</v>
       </c>
       <c r="K228" t="s">
+        <v>71</v>
+      </c>
+      <c r="L228" t="s">
         <v>72</v>
-      </c>
-      <c r="L228" t="s">
-        <v>73</v>
       </c>
       <c r="N228" s="16">
         <v>3.9583333333333331E-2</v>
@@ -14388,7 +14396,7 @@
         <v>55.416666666666664</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="19">
         <v>44480</v>
       </c>
@@ -14420,7 +14428,7 @@
         <v>44480.790277777778</v>
       </c>
       <c r="K229" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N229" s="16">
         <v>2.6388888888888889E-2</v>
@@ -14450,7 +14458,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="19">
         <v>44479</v>
       </c>
@@ -14512,7 +14520,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="19">
         <v>44479</v>
       </c>
@@ -14574,7 +14582,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="19">
         <v>44479</v>
       </c>
@@ -14636,7 +14644,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="19">
         <v>44479</v>
       </c>
@@ -14698,7 +14706,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="19">
         <v>44478</v>
       </c>
@@ -14748,7 +14756,7 @@
         <v>506.52777777777777</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="19">
         <v>44478</v>
       </c>
@@ -14771,7 +14779,7 @@
         <v>44478.37777777778</v>
       </c>
       <c r="H235" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I235" s="20">
         <v>44478.393055555556</v>
@@ -14780,7 +14788,7 @@
         <v>44478.395138888889</v>
       </c>
       <c r="K235" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N235" s="16">
         <v>3.1944444444444449E-2</v>
@@ -14810,7 +14818,7 @@
         <v>44.722222222222229</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="19">
         <v>44478</v>
       </c>
@@ -14833,13 +14841,13 @@
         <v>44478.373611111114</v>
       </c>
       <c r="H236" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I236" s="20">
         <v>44478.396527777775</v>
       </c>
       <c r="K236" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N236" s="16">
         <v>3.125E-2</v>
@@ -14869,7 +14877,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="19">
         <v>44478</v>
       </c>
@@ -14892,7 +14900,7 @@
         <v>44478.45</v>
       </c>
       <c r="H237" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I237" s="20">
         <v>44478.46875</v>
@@ -14901,10 +14909,10 @@
         <v>44478.477083333331</v>
       </c>
       <c r="K237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L237" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N237" s="16">
         <v>7.4999999999999997E-2</v>
@@ -14934,7 +14942,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="19">
         <v>44478</v>
       </c>
@@ -14957,7 +14965,7 @@
         <v>44478.361111111109</v>
       </c>
       <c r="H238" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I238" s="20">
         <v>44478.386111111111</v>
@@ -14966,7 +14974,7 @@
         <v>44478.390277777777</v>
       </c>
       <c r="K238" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N238" s="16">
         <v>3.888888888888889E-2</v>
@@ -14996,7 +15004,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="19">
         <v>44478</v>
       </c>
@@ -15028,7 +15036,7 @@
         <v>44478.416666666664</v>
       </c>
       <c r="K239" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N239" s="16">
         <v>9.7222222222222224E-3</v>
@@ -15058,7 +15066,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="19">
         <v>44478</v>
       </c>
@@ -15081,7 +15089,7 @@
         <v>44478.424305555556</v>
       </c>
       <c r="H240" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I240" s="20">
         <v>44478.438888888886</v>
@@ -15090,10 +15098,10 @@
         <v>44478.481944444444</v>
       </c>
       <c r="K240" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L240" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N240" s="16">
         <v>2.1527777777777781E-2</v>
@@ -15123,7 +15131,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="19">
         <v>44478</v>
       </c>
@@ -15146,7 +15154,7 @@
         <v>44478.413888888892</v>
       </c>
       <c r="H241" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I241" s="20">
         <v>44478.430555555555</v>
@@ -15155,10 +15163,10 @@
         <v>44478.436805555553</v>
       </c>
       <c r="K241" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L241" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N241" s="16">
         <v>4.5138888888888888E-2</v>
@@ -15188,7 +15196,7 @@
         <v>63.194444444444443</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="19">
         <v>44478</v>
       </c>
@@ -15211,7 +15219,7 @@
         <v>44478.427777777775</v>
       </c>
       <c r="H242" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I242" s="20">
         <v>44478.451388888891</v>
@@ -15220,7 +15228,7 @@
         <v>44478.459027777775</v>
       </c>
       <c r="K242" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N242" s="16">
         <v>3.8194444444444441E-2</v>
@@ -15250,7 +15258,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="19">
         <v>44478</v>
       </c>
@@ -15273,7 +15281,7 @@
         <v>44478.450694444444</v>
       </c>
       <c r="H243" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I243" s="20">
         <v>44478.488888888889</v>
@@ -15282,7 +15290,7 @@
         <v>44478.491666666669</v>
       </c>
       <c r="K243" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N243" s="16">
         <v>6.0416666666666667E-2</v>
@@ -15312,7 +15320,7 @@
         <v>84.583333333333329</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="19">
         <v>44478</v>
       </c>
@@ -15359,7 +15367,7 @@
         <v>663.05555555555566</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="19">
         <v>44478</v>
       </c>
@@ -15406,7 +15414,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="19">
         <v>44477</v>
       </c>
@@ -15429,7 +15437,7 @@
         <v>44477.366666666669</v>
       </c>
       <c r="H246" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I246" s="20">
         <v>44477.378472222219</v>
@@ -15468,7 +15476,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="19">
         <v>44477</v>
       </c>
@@ -15530,7 +15538,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="19">
         <v>44477</v>
       </c>
@@ -15553,7 +15561,7 @@
         <v>44477.376388888886</v>
       </c>
       <c r="H248" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I248" s="20">
         <v>44477.423611111109</v>
@@ -15562,7 +15570,7 @@
         <v>44477.430555555555</v>
       </c>
       <c r="K248" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N248" s="16">
         <v>5.4166666666666669E-2</v>
@@ -15592,7 +15600,7 @@
         <v>75.833333333333343</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="19">
         <v>44477</v>
       </c>
@@ -15624,7 +15632,7 @@
         <v>44477.398611111108</v>
       </c>
       <c r="K249" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N249" s="16">
         <v>2.013888888888889E-2</v>
@@ -15654,7 +15662,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="19">
         <v>44477</v>
       </c>
@@ -15677,7 +15685,7 @@
         <v>44477.383333333331</v>
       </c>
       <c r="H250" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I250" s="20">
         <v>44477.409722222219</v>
@@ -15686,7 +15694,7 @@
         <v>44477.416666666664</v>
       </c>
       <c r="K250" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N250" s="16">
         <v>3.125E-2</v>
@@ -15716,7 +15724,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="19">
         <v>44477</v>
       </c>
@@ -15778,7 +15786,7 @@
         <v>84.583333333333329</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="19">
         <v>44477</v>
       </c>
@@ -15810,7 +15818,7 @@
         <v>44477.416666666664</v>
       </c>
       <c r="K252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N252" s="16">
         <v>2.1527777777777781E-2</v>
@@ -15840,7 +15848,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="19">
         <v>44477</v>
       </c>
@@ -15863,7 +15871,7 @@
         <v>44477.418055555558</v>
       </c>
       <c r="H253" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I253" s="20">
         <v>44477.440972222219</v>
@@ -15872,7 +15880,7 @@
         <v>44477.447916666664</v>
       </c>
       <c r="K253" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N253" s="16">
         <v>4.2361111111111106E-2</v>
@@ -15902,7 +15910,7 @@
         <v>59.30555555555555</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="19">
         <v>44477</v>
       </c>
@@ -15955,7 +15963,7 @@
         <v>561.94444444444434</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="19">
         <v>44477</v>
       </c>
@@ -15978,7 +15986,7 @@
         <v>44477.426388888889</v>
       </c>
       <c r="H255" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I255" s="20">
         <v>44477.461805555555</v>
@@ -15987,7 +15995,7 @@
         <v>44477.46597222222</v>
       </c>
       <c r="K255" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N255" s="16">
         <v>5.7638888888888885E-2</v>
@@ -16017,7 +16025,7 @@
         <v>80.694444444444443</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="19">
         <v>44477</v>
       </c>
@@ -16064,7 +16072,7 @@
         <v>590.13888888888891</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="19">
         <v>44477</v>
       </c>
@@ -16087,7 +16095,7 @@
         <v>44477.410416666666</v>
       </c>
       <c r="H257" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I257" s="20">
         <v>44477.430555555555</v>
@@ -16096,7 +16104,7 @@
         <v>44477.436805555553</v>
       </c>
       <c r="K257" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N257" s="16">
         <v>2.4305555555555556E-2</v>
@@ -16126,7 +16134,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="19">
         <v>44477</v>
       </c>
@@ -16149,7 +16157,7 @@
         <v>44477.506249999999</v>
       </c>
       <c r="H258" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I258" s="20">
         <v>44477.565972222219</v>
@@ -16188,7 +16196,7 @@
         <v>91.3888888888889</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="19">
         <v>44477</v>
       </c>
@@ -16220,7 +16228,7 @@
         <v>44477.524305555555</v>
       </c>
       <c r="K259" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N259" s="16">
         <v>1.2499999999999999E-2</v>
@@ -16250,7 +16258,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="19">
         <v>44477</v>
       </c>
@@ -16303,7 +16311,7 @@
         <v>743.75</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="19">
         <v>44477</v>
       </c>
@@ -16335,7 +16343,7 @@
         <v>44477.599999999999</v>
       </c>
       <c r="K261" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L261" t="s">
         <v>29</v>
@@ -16368,7 +16376,7 @@
         <v>79.722222222222214</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="19">
         <v>44476</v>
       </c>
@@ -16391,7 +16399,7 @@
         <v>44476.38958333333</v>
       </c>
       <c r="H262" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I262" s="20">
         <v>44476.404861111114</v>
@@ -16403,7 +16411,7 @@
         <v>33</v>
       </c>
       <c r="L262" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N262" s="16">
         <v>3.4722222222222224E-2</v>
@@ -16433,7 +16441,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="19">
         <v>44476</v>
       </c>
@@ -16456,7 +16464,7 @@
         <v>44476.393750000003</v>
       </c>
       <c r="H263" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I263" s="20">
         <v>44476.433333333334</v>
@@ -16495,7 +16503,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="19">
         <v>44476</v>
       </c>
@@ -16518,7 +16526,7 @@
         <v>44476.425000000003</v>
       </c>
       <c r="H264" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I264" s="20">
         <v>44476.443749999999</v>
@@ -16557,7 +16565,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="19">
         <v>44476</v>
       </c>
@@ -16580,7 +16588,7 @@
         <v>44476.451388888891</v>
       </c>
       <c r="H265" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I265" s="20">
         <v>44476.46597222222</v>
@@ -16619,7 +16627,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="19">
         <v>44475</v>
       </c>
@@ -16642,7 +16650,7 @@
         <v>44475.375694444447</v>
       </c>
       <c r="H266" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I266" s="20">
         <v>44475.393750000003</v>
@@ -16651,7 +16659,7 @@
         <v>44475.394444444442</v>
       </c>
       <c r="K266" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N266" s="16">
         <v>3.4027777777777775E-2</v>
@@ -16681,7 +16689,7 @@
         <v>47.638888888888886</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="19">
         <v>44475</v>
       </c>
@@ -16704,7 +16712,7 @@
         <v>44475.370833333334</v>
       </c>
       <c r="H267" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I267" s="20">
         <v>44475.400694444441</v>
@@ -16743,7 +16751,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="19">
         <v>44475</v>
       </c>
@@ -16769,7 +16777,7 @@
         <v>44475.443749999999</v>
       </c>
       <c r="K268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N268" s="16">
         <v>4.027777777777778E-2</v>
@@ -16799,7 +16807,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="19">
         <v>44475</v>
       </c>
@@ -16822,7 +16830,7 @@
         <v>44475.447222222225</v>
       </c>
       <c r="H269" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I269" s="20">
         <v>44475.506944444445</v>
@@ -16834,7 +16842,7 @@
         <v>33</v>
       </c>
       <c r="L269" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N269" s="16">
         <v>0.14305555555555557</v>
@@ -16864,7 +16872,7 @@
         <v>200.2777777777778</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="19">
         <v>44475</v>
       </c>
@@ -16896,7 +16904,7 @@
         <v>44475.414583333331</v>
       </c>
       <c r="K270" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N270" s="16">
         <v>4.3055555555555562E-2</v>
@@ -16926,7 +16934,7 @@
         <v>60.277777777777786</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="19">
         <v>44475</v>
       </c>
@@ -16949,7 +16957,7 @@
         <v>44475.374305555553</v>
       </c>
       <c r="H271" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I271" s="20">
         <v>44475.429166666669</v>
@@ -16988,7 +16996,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="19">
         <v>44475</v>
       </c>
@@ -17041,7 +17049,7 @@
         <v>560.97222222222229</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="19">
         <v>44475</v>
       </c>
@@ -17064,7 +17072,7 @@
         <v>44475.411805555559</v>
       </c>
       <c r="H273" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I273" s="20">
         <v>44475.461805555555</v>
@@ -17103,7 +17111,7 @@
         <v>84.583333333333329</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="19">
         <v>44475</v>
       </c>
@@ -17126,7 +17134,7 @@
         <v>44475.410416666666</v>
       </c>
       <c r="H274" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I274" s="20">
         <v>44475.465277777781</v>
@@ -17165,7 +17173,7 @@
         <v>82.6388888888889</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="19">
         <v>44475</v>
       </c>
@@ -17218,7 +17226,7 @@
         <v>569.72222222222229</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="19">
         <v>44475</v>
       </c>
@@ -17265,7 +17273,7 @@
         <v>578.47222222222217</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="19">
         <v>44475</v>
       </c>
@@ -17288,7 +17296,7 @@
         <v>44475.418749999997</v>
       </c>
       <c r="H277" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I277" s="20">
         <v>44475.458333333336</v>
@@ -17297,10 +17305,10 @@
         <v>44475.472222222219</v>
       </c>
       <c r="K277" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L277" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N277" s="16">
         <v>4.3055555555555562E-2</v>
@@ -17330,7 +17338,7 @@
         <v>60.277777777777786</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="19">
         <v>44475</v>
       </c>
@@ -17353,7 +17361,7 @@
         <v>44475.420138888891</v>
       </c>
       <c r="H278" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I278" s="20">
         <v>44475.513888888891</v>
@@ -17362,10 +17370,10 @@
         <v>44475.521527777775</v>
       </c>
       <c r="K278" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L278" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N278" s="16">
         <v>9.7916666666666666E-2</v>
@@ -17395,7 +17403,7 @@
         <v>137.08333333333334</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="19">
         <v>44475</v>
       </c>
@@ -17418,7 +17426,7 @@
         <v>44475.425000000003</v>
       </c>
       <c r="H279" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I279" s="20">
         <v>44475.479166666664</v>
@@ -17457,7 +17465,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="19">
         <v>44475</v>
       </c>
@@ -17519,7 +17527,7 @@
         <v>109.86111111111111</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" s="19">
         <v>44475</v>
       </c>
@@ -17542,7 +17550,7 @@
         <v>44475.470138888886</v>
       </c>
       <c r="H281" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I281" s="20">
         <v>44475.520833333336</v>
@@ -17551,7 +17559,7 @@
         <v>44475.537499999999</v>
       </c>
       <c r="K281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N281" s="16">
         <v>5.7638888888888885E-2</v>
@@ -17581,7 +17589,7 @@
         <v>80.694444444444443</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="19">
         <v>44475</v>
       </c>
@@ -17601,7 +17609,7 @@
         <v>44475.472222222219</v>
       </c>
       <c r="L282" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N282" s="16">
         <v>0.47222222222222227</v>
@@ -17631,7 +17639,7 @@
         <v>661.1111111111112</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283" s="19">
         <v>44475</v>
       </c>
@@ -17654,7 +17662,7 @@
         <v>44475.540972222225</v>
       </c>
       <c r="H283" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I283" s="20">
         <v>44475.548611111109</v>
@@ -17663,7 +17671,7 @@
         <v>44475.553472222222</v>
       </c>
       <c r="K283" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N283" s="16">
         <v>2.7083333333333334E-2</v>
@@ -17693,7 +17701,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="19">
         <v>44475</v>
       </c>
@@ -17755,7 +17763,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285" s="19">
         <v>44475</v>
       </c>
@@ -17802,7 +17810,7 @@
         <v>1011.1111111111111</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" s="19">
         <v>44474</v>
       </c>
@@ -17825,7 +17833,7 @@
         <v>44474.402777777781</v>
       </c>
       <c r="H286" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I286" s="20">
         <v>44474.416666666664</v>
@@ -17834,7 +17842,7 @@
         <v>44474.42083333333</v>
       </c>
       <c r="K286" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N286" s="16">
         <v>5.2777777777777778E-2</v>
@@ -17864,7 +17872,7 @@
         <v>73.888888888888886</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" s="19">
         <v>44474</v>
       </c>
@@ -17887,7 +17895,7 @@
         <v>44474.393750000003</v>
       </c>
       <c r="H287" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I287" s="20">
         <v>44474.407638888886</v>
@@ -17926,7 +17934,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="19">
         <v>44474</v>
       </c>
@@ -17949,7 +17957,7 @@
         <v>44474.388194444444</v>
       </c>
       <c r="H288" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N288" s="16">
         <v>0.37083333333333335</v>
@@ -17979,7 +17987,7 @@
         <v>519.16666666666674</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" s="19">
         <v>44474</v>
       </c>
@@ -17999,7 +18007,7 @@
         <v>44474.413888888892</v>
       </c>
       <c r="H289" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N289" s="16">
         <v>0</v>
@@ -18029,7 +18037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="19">
         <v>44474</v>
       </c>
@@ -18052,7 +18060,7 @@
         <v>44474.410416666666</v>
       </c>
       <c r="H290" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I290" s="20">
         <v>44474.430555555555</v>
@@ -18061,7 +18069,7 @@
         <v>44474.447222222225</v>
       </c>
       <c r="K290" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N290" s="16">
         <v>3.2638888888888891E-2</v>
@@ -18091,7 +18099,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" s="19">
         <v>44474</v>
       </c>
@@ -18114,7 +18122,7 @@
         <v>44474.425000000003</v>
       </c>
       <c r="H291" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N291" s="16">
         <v>0.41319444444444442</v>
@@ -18144,7 +18152,7 @@
         <v>578.47222222222217</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="19">
         <v>44474</v>
       </c>
@@ -18167,7 +18175,7 @@
         <v>44474.580555555556</v>
       </c>
       <c r="H292" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I292" s="20">
         <v>44474.590277777781</v>
@@ -18176,7 +18184,7 @@
         <v>44474.59375</v>
       </c>
       <c r="K292" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N292" s="16">
         <v>1.8749999999999999E-2</v>
@@ -18206,7 +18214,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="19">
         <v>44474</v>
       </c>
@@ -18253,7 +18261,7 @@
         <v>833.19444444444446</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="19">
         <v>44474</v>
       </c>
@@ -18315,7 +18323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" s="19">
         <v>44474</v>
       </c>
@@ -18338,7 +18346,7 @@
         <v>44474.686805555553</v>
       </c>
       <c r="H295" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I295" s="20">
         <v>44474.689583333333</v>
@@ -18347,10 +18355,10 @@
         <v>44474.69027777778</v>
       </c>
       <c r="K295" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L295" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N295" s="16">
         <v>6.2499999999999995E-3</v>
@@ -18380,7 +18388,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="19">
         <v>44474</v>
       </c>
@@ -18403,7 +18411,7 @@
         <v>44474.726388888892</v>
       </c>
       <c r="H296" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I296" s="20">
         <v>44474.73541666667</v>
@@ -18439,7 +18447,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" s="19">
         <v>44474</v>
       </c>
@@ -18462,7 +18470,7 @@
         <v>44474.729166666664</v>
       </c>
       <c r="H297" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I297" s="20">
         <v>44474.738888888889</v>
@@ -18498,7 +18506,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="19">
         <v>44474</v>
       </c>
@@ -18521,7 +18529,7 @@
         <v>44474.738194444442</v>
       </c>
       <c r="H298" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I298" s="20">
         <v>44474.73541666667</v>
@@ -18557,7 +18565,7 @@
         <v>2.9166666666666665</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" s="19">
         <v>44474</v>
       </c>
@@ -18580,7 +18588,7 @@
         <v>44474.797222222223</v>
       </c>
       <c r="H299" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I299" s="20">
         <v>44474.802083333336</v>
@@ -18613,7 +18621,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="19">
         <v>44473</v>
       </c>
@@ -18636,7 +18644,7 @@
         <v>44473.37777777778</v>
       </c>
       <c r="H300" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I300" s="20">
         <v>44473.388194444444</v>
@@ -18675,7 +18683,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" s="19">
         <v>44473</v>
       </c>
@@ -18698,7 +18706,7 @@
         <v>44473.384722222225</v>
       </c>
       <c r="H301" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I301" s="20">
         <v>44473.411805555559</v>
@@ -18737,7 +18745,7 @@
         <v>50.555555555555557</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="19">
         <v>44473</v>
       </c>
@@ -18760,7 +18768,7 @@
         <v>44473.410416666666</v>
       </c>
       <c r="H302" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I302" s="20">
         <v>44473.417361111111</v>
@@ -18769,7 +18777,7 @@
         <v>44473.419444444444</v>
       </c>
       <c r="K302" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N302" s="16">
         <v>1.1111111111111112E-2</v>
@@ -18799,7 +18807,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="19">
         <v>44473</v>
       </c>
@@ -18822,7 +18830,7 @@
         <v>44473.496527777781</v>
       </c>
       <c r="H303" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I303" s="20">
         <v>44473.506944444445</v>
@@ -18831,7 +18839,7 @@
         <v>44473.508333333331</v>
       </c>
       <c r="K303" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N303" s="16">
         <v>2.2222222222222223E-2</v>
@@ -18861,7 +18869,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="19">
         <v>44473</v>
       </c>
@@ -18884,7 +18892,7 @@
         <v>44473.501388888886</v>
       </c>
       <c r="H304" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I304" s="20">
         <v>44473.521527777775</v>
@@ -18893,7 +18901,7 @@
         <v>44473.525000000001</v>
       </c>
       <c r="K304" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N304" s="16">
         <v>2.5694444444444447E-2</v>
@@ -18923,7 +18931,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="19">
         <v>44473</v>
       </c>
@@ -18955,7 +18963,7 @@
         <v>44473.515972222223</v>
       </c>
       <c r="K305" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N305" s="16">
         <v>2.4999999999999998E-2</v>
@@ -18985,7 +18993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="19">
         <v>44473</v>
       </c>
@@ -19008,7 +19016,7 @@
         <v>44473.532638888886</v>
       </c>
       <c r="H306" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I306" s="20">
         <v>44473.549305555556</v>
@@ -19047,7 +19055,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307" s="19">
         <v>44473</v>
       </c>
@@ -19079,7 +19087,7 @@
         <v>44473.53402777778</v>
       </c>
       <c r="K307" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N307" s="16">
         <v>8.3333333333333332E-3</v>
@@ -19109,7 +19117,7 @@
         <v>11.666666666666666</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="19">
         <v>44473</v>
       </c>
@@ -19156,7 +19164,7 @@
         <v>733.05555555555554</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" s="19">
         <v>44473</v>
       </c>
@@ -19179,7 +19187,7 @@
         <v>44473.568055555559</v>
       </c>
       <c r="H309" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I309" s="20">
         <v>44473.590277777781</v>
@@ -19188,7 +19196,7 @@
         <v>44473.595138888886</v>
       </c>
       <c r="K309" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N309" s="16">
         <v>3.8194444444444441E-2</v>
@@ -19218,7 +19226,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="19">
         <v>44473</v>
       </c>
@@ -19241,7 +19249,7 @@
         <v>44473.60833333333</v>
       </c>
       <c r="H310" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I310" s="20">
         <v>44473.631944444445</v>
@@ -19280,7 +19288,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" s="19">
         <v>44472</v>
       </c>
@@ -19303,7 +19311,7 @@
         <v>44472.354861111111</v>
       </c>
       <c r="H311" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I311" s="20">
         <v>44472.371527777781</v>
@@ -19312,7 +19320,7 @@
         <v>44472.373611111114</v>
       </c>
       <c r="K311" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N311" s="16">
         <v>2.9861111111111113E-2</v>
@@ -19342,7 +19350,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" s="19">
         <v>44472</v>
       </c>
@@ -19365,7 +19373,7 @@
         <v>44472.395138888889</v>
       </c>
       <c r="H312" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I312" s="20">
         <v>44472.418055555558</v>
@@ -19374,7 +19382,7 @@
         <v>44472.419444444444</v>
       </c>
       <c r="K312" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N312" s="16">
         <v>2.8472222222222222E-2</v>
@@ -19404,7 +19412,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313" s="19">
         <v>44472</v>
       </c>
@@ -19427,7 +19435,7 @@
         <v>44472.4</v>
       </c>
       <c r="H313" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I313" s="20">
         <v>44472.430555555555</v>
@@ -19436,7 +19444,7 @@
         <v>44472.434027777781</v>
       </c>
       <c r="K313" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N313" s="16">
         <v>3.5416666666666666E-2</v>
@@ -19466,7 +19474,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" s="19">
         <v>44472</v>
       </c>
@@ -19489,7 +19497,7 @@
         <v>44472.404861111114</v>
       </c>
       <c r="H314" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I314" s="20">
         <v>44472.413888888892</v>
@@ -19498,7 +19506,7 @@
         <v>44472.418055555558</v>
       </c>
       <c r="K314" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N314" s="16">
         <v>2.013888888888889E-2</v>
@@ -19528,7 +19536,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315" s="19">
         <v>44472</v>
       </c>
@@ -19551,7 +19559,7 @@
         <v>44472.423611111109</v>
       </c>
       <c r="H315" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I315" s="20">
         <v>44472.489583333336</v>
@@ -19560,7 +19568,7 @@
         <v>44472.494444444441</v>
       </c>
       <c r="K315" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L315" t="s">
         <v>29</v>
@@ -19593,7 +19601,7 @@
         <v>116.66666666666666</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="19">
         <v>44472</v>
       </c>
@@ -19637,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317" s="19">
         <v>44472</v>
       </c>
@@ -19660,7 +19668,7 @@
         <v>44472.470833333333</v>
       </c>
       <c r="H317" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I317" s="20">
         <v>44472.496527777781</v>
@@ -19669,7 +19677,7 @@
         <v>44472.503472222219</v>
       </c>
       <c r="K317" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N317" s="16">
         <v>3.4027777777777775E-2</v>
@@ -19699,7 +19707,7 @@
         <v>47.638888888888886</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318" s="19">
         <v>44471</v>
       </c>
@@ -19722,7 +19730,7 @@
         <v>44471.37777777778</v>
       </c>
       <c r="H318" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I318" s="20">
         <v>44471.380555555559</v>
@@ -19731,7 +19739,7 @@
         <v>44471.386805555558</v>
       </c>
       <c r="K318" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N318" s="16">
         <v>1.4583333333333332E-2</v>
@@ -19761,7 +19769,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319" s="19">
         <v>44471</v>
       </c>
@@ -19784,7 +19792,7 @@
         <v>44471.378472222219</v>
       </c>
       <c r="H319" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I319" s="20">
         <v>44471.386111111111</v>
@@ -19793,7 +19801,7 @@
         <v>44471.387499999997</v>
       </c>
       <c r="K319" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N319" s="16">
         <v>1.1111111111111112E-2</v>
@@ -19823,7 +19831,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320" s="19">
         <v>44471</v>
       </c>
@@ -19852,7 +19860,7 @@
         <v>44471.395138888889</v>
       </c>
       <c r="L320" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N320" s="16">
         <v>4.1666666666666666E-3</v>
@@ -19882,7 +19890,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321" s="19">
         <v>44471</v>
       </c>
@@ -19914,7 +19922,7 @@
         <v>44471.40625</v>
       </c>
       <c r="K321" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N321" s="16">
         <v>3.472222222222222E-3</v>
@@ -19944,7 +19952,7 @@
         <v>4.8611111111111107</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" s="19">
         <v>44470</v>
       </c>
@@ -19976,7 +19984,7 @@
         <v>44470.385416666664</v>
       </c>
       <c r="K322" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N322" s="16">
         <v>2.1527777777777781E-2</v>
@@ -20006,7 +20014,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323" s="19">
         <v>44470</v>
       </c>
@@ -20062,7 +20070,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324" s="19">
         <v>44470</v>
       </c>
@@ -20094,7 +20102,7 @@
         <v>44470.518055555556</v>
       </c>
       <c r="K324" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N324" s="16">
         <v>9.5833333333333326E-2</v>
@@ -20124,7 +20132,7 @@
         <v>134.16666666666666</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325" s="19">
         <v>44470</v>
       </c>
@@ -20156,10 +20164,10 @@
         <v>44470.45208333333</v>
       </c>
       <c r="K325" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L325" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N325" s="16">
         <v>4.027777777777778E-2</v>
@@ -20189,7 +20197,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326" s="19">
         <v>44470</v>
       </c>
@@ -20236,7 +20244,7 @@
         <v>572.63888888888891</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327" s="19">
         <v>44470</v>
       </c>
@@ -20298,7 +20306,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328" s="19">
         <v>44470</v>
       </c>
@@ -20360,7 +20368,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" s="19">
         <v>44470</v>
       </c>
@@ -20419,7 +20427,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330" s="19">
         <v>44470</v>
       </c>
@@ -20472,7 +20480,7 @@
         <v>629.02777777777783</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" s="19">
         <v>44470</v>
       </c>
@@ -20534,7 +20542,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332" s="19">
         <v>44470</v>
       </c>
@@ -20584,7 +20592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" s="19">
         <v>44470</v>
       </c>
@@ -20607,7 +20615,7 @@
         <v>44470.616666666669</v>
       </c>
       <c r="H333" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I333" s="20">
         <v>44470.629166666666</v>
@@ -20646,7 +20654,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334" s="19">
         <v>44470</v>
       </c>
@@ -20669,13 +20677,13 @@
         <v>44470.706944444442</v>
       </c>
       <c r="H334" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I334" s="20">
         <v>44470.709722222222</v>
       </c>
       <c r="K334" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L334" t="s">
         <v>29</v>
@@ -20708,7 +20716,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" s="19">
         <v>44470</v>
       </c>
@@ -20731,13 +20739,13 @@
         <v>44470.70416666667</v>
       </c>
       <c r="H335" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I335" s="20">
         <v>44470.713194444441</v>
       </c>
       <c r="K335" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L335" t="s">
         <v>29</v>
@@ -20770,7 +20778,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336" s="19">
         <v>44470</v>
       </c>
@@ -20793,7 +20801,7 @@
         <v>44470.789583333331</v>
       </c>
       <c r="H336" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I336" s="20">
         <v>44470.790972222225</v>
@@ -20802,7 +20810,7 @@
         <v>44470.795138888891</v>
       </c>
       <c r="K336" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N336" s="16">
         <v>6.9444444444444441E-3</v>
@@ -20832,7 +20840,7 @@
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="19">
         <v>44470</v>
       </c>
@@ -20855,7 +20863,7 @@
         <v>44470.754166666666</v>
       </c>
       <c r="H337" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I337" s="20">
         <v>44470.79583333333</v>
@@ -20864,10 +20872,10 @@
         <v>44470.796527777777</v>
       </c>
       <c r="K337" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L337" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N337" s="16">
         <v>4.5833333333333337E-2</v>
@@ -20897,7 +20905,7 @@
         <v>64.166666666666671</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338" s="19"/>
       <c r="F338" s="20"/>
       <c r="G338" s="20"/>
@@ -20910,7 +20918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="19"/>
       <c r="F339" s="20"/>
       <c r="G339" s="20"/>
@@ -20923,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" s="19"/>
       <c r="F340" s="20"/>
       <c r="G340" s="20"/>
@@ -20936,7 +20944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="19"/>
       <c r="F341" s="20"/>
       <c r="G341" s="20"/>
@@ -20949,7 +20957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342" s="19"/>
       <c r="F342" s="20"/>
       <c r="G342" s="20"/>
@@ -20961,7 +20969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" s="19"/>
       <c r="F343" s="20"/>
       <c r="G343" s="20"/>
@@ -20974,7 +20982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" s="19"/>
       <c r="F344" s="20"/>
       <c r="G344" s="20"/>
@@ -20987,7 +20995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" s="19"/>
       <c r="F345" s="20"/>
       <c r="G345" s="20"/>
@@ -20999,7 +21007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
@@ -21030,7 +21038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="8"/>
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
@@ -21061,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
@@ -21092,7 +21100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="8"/>
       <c r="B349" s="9"/>
       <c r="C349" s="10"/>
@@ -21123,7 +21131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
@@ -21154,7 +21162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" s="8"/>
       <c r="B351" s="9"/>
       <c r="C351" s="10"/>
@@ -21185,7 +21193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
@@ -21216,7 +21224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" s="8"/>
       <c r="B353" s="9"/>
       <c r="C353" s="10"/>
@@ -21247,7 +21255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
@@ -21278,7 +21286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355" s="8"/>
       <c r="B355" s="9"/>
       <c r="C355" s="10"/>
@@ -21309,7 +21317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
@@ -21340,7 +21348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357" s="8"/>
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
@@ -21371,7 +21379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
@@ -21402,7 +21410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" s="8"/>
       <c r="B359" s="9"/>
       <c r="C359" s="10"/>
@@ -21433,7 +21441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
@@ -21464,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" s="8"/>
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
@@ -21495,7 +21503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="3"/>
@@ -21526,7 +21534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" s="8"/>
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
@@ -21557,7 +21565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
@@ -21588,7 +21596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" s="8"/>
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
@@ -21619,7 +21627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
@@ -21650,7 +21658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" s="8"/>
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
@@ -21681,7 +21689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>
@@ -21712,7 +21720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" s="8"/>
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
@@ -21743,7 +21751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="3"/>
@@ -21774,7 +21782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" s="8"/>
       <c r="B371" s="9"/>
       <c r="C371" s="10"/>
@@ -21805,7 +21813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="3"/>
@@ -21836,7 +21844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" s="8"/>
       <c r="B373" s="9"/>
       <c r="C373" s="10"/>
@@ -21867,7 +21875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="3"/>
@@ -21898,7 +21906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" s="8"/>
       <c r="B375" s="9"/>
       <c r="C375" s="10"/>
@@ -21929,7 +21937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="3"/>
@@ -21960,7 +21968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377" s="8"/>
       <c r="B377" s="9"/>
       <c r="C377" s="10"/>
@@ -21991,7 +21999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="3"/>
@@ -22022,7 +22030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A379" s="8"/>
       <c r="B379" s="9"/>
       <c r="C379" s="10"/>
@@ -22053,7 +22061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
       <c r="C380" s="3"/>
@@ -22084,7 +22092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A381" s="8"/>
       <c r="B381" s="9"/>
       <c r="C381" s="10"/>
@@ -22115,7 +22123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
       <c r="C382" s="3"/>
@@ -22146,7 +22154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383" s="8"/>
       <c r="B383" s="9"/>
       <c r="C383" s="10"/>
@@ -22177,7 +22185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
       <c r="C384" s="3"/>
@@ -22208,7 +22216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A385" s="8"/>
       <c r="B385" s="9"/>
       <c r="C385" s="10"/>
@@ -22239,7 +22247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
       <c r="C386" s="3"/>
@@ -22270,7 +22278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A387" s="8"/>
       <c r="B387" s="9"/>
       <c r="C387" s="10"/>
@@ -22301,7 +22309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
       <c r="C388" s="3"/>
@@ -22332,7 +22340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A389" s="8"/>
       <c r="B389" s="9"/>
       <c r="C389" s="10"/>
@@ -22363,7 +22371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
       <c r="C390" s="3"/>
@@ -22395,6 +22403,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W337" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
